--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -235,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -247,6 +253,7 @@
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -268,25 +275,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -308,405 +321,468 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -253,7 +253,7 @@
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -322,467 +325,467 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>composizioneCompleta</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
   </si>
 </sst>
 </file>
@@ -244,7 +250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -254,7 +260,7 @@
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -788,6 +794,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
   <si>
     <t>Sezione</t>
   </si>
@@ -95,6 +95,15 @@
     <t>estremiDocumento</t>
   </si>
   <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -120,9 +129,6 @@
   </si>
   <si>
     <t>Indirizzo Ente</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>indirizzoEnte</t>
@@ -250,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -457,13 +463,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -477,7 +483,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -486,7 +492,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -500,7 +506,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -509,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -523,7 +529,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -532,7 +538,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -546,10 +552,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>25</v>
@@ -566,19 +572,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -589,16 +595,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
@@ -612,7 +618,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
@@ -621,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -635,7 +641,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
@@ -644,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -658,7 +664,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -667,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -681,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -690,10 +696,10 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -704,19 +710,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -727,7 +733,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -736,10 +742,10 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -750,19 +756,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -773,7 +779,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
@@ -782,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -796,13 +802,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>14</v>
@@ -814,6 +820,29 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,6 +83,42 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
+  </si>
+  <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Ente dichiarante</t>
   </si>
   <si>
@@ -96,9 +132,6 @@
   </si>
   <si>
     <t>Nome ente</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>nomeEnte</t>
@@ -256,7 +289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -440,10 +473,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -463,13 +496,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -483,16 +516,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -506,16 +539,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -529,16 +562,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -549,7 +582,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -558,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -572,19 +605,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -595,19 +628,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -618,19 +651,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -641,19 +674,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -664,19 +697,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -687,19 +720,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -710,19 +743,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -733,19 +766,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -756,19 +789,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -779,19 +812,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -802,19 +835,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -825,24 +858,139 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,55 +83,22 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati generali</t>
-  </si>
-  <si>
-    <t>Data decorrenza</t>
+    <t>Ente dichiarante</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>evento.enteDichiarante</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>dataDecorrenza</t>
-  </si>
-  <si>
-    <t>Ora decorrenza</t>
-  </si>
-  <si>
-    <t>oraDecorrenza</t>
-  </si>
-  <si>
-    <t>Minuto decorrenza</t>
-  </si>
-  <si>
-    <t>minutoDecorrenza</t>
-  </si>
-  <si>
-    <t>Motivo recupero</t>
-  </si>
-  <si>
-    <t>motivoRecupero</t>
-  </si>
-  <si>
-    <t>Descrizione recupero</t>
-  </si>
-  <si>
-    <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Ente dichiarante</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>evento.enteDichiarante</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
   </si>
   <si>
     <t>nomeEnte</t>
@@ -289,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -473,10 +440,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -496,13 +463,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -516,16 +483,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -539,16 +506,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -562,16 +529,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -582,7 +549,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -591,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -605,19 +572,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -628,19 +595,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -651,19 +618,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -674,19 +641,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -697,19 +664,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -720,19 +687,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -743,19 +710,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -766,19 +733,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -789,19 +756,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -812,19 +779,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -835,19 +802,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -858,139 +825,24 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="81">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,18 @@
     <t>nomeEnte</t>
   </si>
   <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -159,6 +171,18 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
   <si>
     <t>Indirizzo Ente</t>
@@ -289,7 +313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -680,7 +704,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -703,7 +727,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -743,19 +767,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -766,19 +790,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -789,19 +813,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -812,19 +836,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -835,16 +859,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -858,7 +882,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -867,10 +891,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -881,19 +905,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -904,19 +928,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -927,19 +951,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -950,19 +974,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -973,24 +997,116 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Ente dichiarante</t>
@@ -313,7 +319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -606,19 +612,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -629,16 +635,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -652,16 +658,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -675,7 +681,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -684,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -698,16 +704,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -721,7 +727,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -730,7 +736,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -744,7 +750,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -753,7 +759,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -767,7 +773,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -776,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -790,7 +796,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -799,7 +805,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -813,7 +819,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -822,7 +828,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -836,7 +842,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -845,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -859,19 +865,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -882,16 +888,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -905,7 +911,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -914,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -928,7 +934,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -937,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -951,7 +957,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -960,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -974,7 +980,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -983,10 +989,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -997,19 +1003,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1020,7 +1026,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1029,10 +1035,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1043,19 +1049,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1066,7 +1072,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1075,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1089,13 +1095,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
@@ -1107,6 +1113,29 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="81">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Ente dichiarante</t>
@@ -319,7 +313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -612,19 +606,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -635,16 +629,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -658,16 +652,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -681,7 +675,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -690,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -704,16 +698,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -727,7 +721,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -736,7 +730,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -750,7 +744,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -759,7 +753,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -773,7 +767,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -782,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -796,7 +790,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -805,7 +799,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -819,7 +813,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -828,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -842,7 +836,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -851,7 +845,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -865,19 +859,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -888,16 +882,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -911,7 +905,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -920,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -934,7 +928,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -943,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -957,7 +951,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -966,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -980,7 +974,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -989,10 +983,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1003,19 +997,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1026,7 +1020,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1035,10 +1029,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1049,19 +1043,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1072,7 +1066,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1081,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1095,13 +1089,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
@@ -1113,29 +1107,6 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="85">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -319,7 +325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -381,63 +387,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -446,90 +452,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -538,21 +544,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -561,21 +567,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -584,21 +590,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -607,21 +613,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -630,44 +636,44 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -676,12 +682,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -690,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -699,21 +705,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -722,21 +728,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -745,21 +751,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -768,21 +774,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -791,21 +797,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -814,21 +820,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -837,21 +843,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -860,21 +866,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -883,44 +889,44 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -929,21 +935,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -952,21 +958,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -975,21 +981,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -998,113 +1004,113 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1113,21 +1119,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1136,7 +1142,30 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="87">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Ente dichiarante</t>
@@ -325,7 +331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -664,19 +670,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -687,16 +693,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -710,16 +716,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -733,7 +739,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -742,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -756,16 +762,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -779,7 +785,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -788,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -802,7 +808,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -811,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -825,7 +831,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -834,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -848,7 +854,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -857,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -871,7 +877,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -880,7 +886,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -894,7 +900,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
@@ -903,7 +909,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -917,19 +923,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -940,16 +946,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -963,7 +969,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -972,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -986,7 +992,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -995,7 +1001,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1009,7 +1015,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1018,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1032,7 +1038,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1041,10 +1047,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1055,19 +1061,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1078,7 +1084,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
@@ -1087,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1101,19 +1107,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1124,7 +1130,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1133,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1147,13 +1153,13 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>17</v>
@@ -1165,6 +1171,29 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>19</v>
       </c>
     </row>
